--- a/src/main/resources/template/excel/export/dayReport.xlsx
+++ b/src/main/resources/template/excel/export/dayReport.xlsx
@@ -35,7 +35,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="T3")</t>
+          <t>jx:area(lastCell="V3")</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="T3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="V3")</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>货号</t>
   </si>
@@ -441,6 +441,44 @@
   </si>
   <si>
     <t>机构名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售数量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售成本金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.posNum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.costAmount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -890,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -906,21 +944,21 @@
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="29.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.75" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.25" style="2" customWidth="1"/>
-    <col min="18" max="18" width="17" style="2" customWidth="1"/>
-    <col min="19" max="19" width="18.125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="13.875" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="10" max="12" width="18.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.75" style="2" customWidth="1"/>
+    <col min="19" max="19" width="15.25" style="2" customWidth="1"/>
+    <col min="20" max="20" width="17" style="2" customWidth="1"/>
+    <col min="21" max="21" width="18.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="13.875" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -943,8 +981,10 @@
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -976,37 +1016,43 @@
         <v>14</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1038,49 +1084,55 @@
         <v>29</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1168,7 +1220,7 @@
     <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A1:V1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/dayReport.xlsx
+++ b/src/main/resources/template/excel/export/dayReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="V3")</t>
+          <t>jx:area(lastCell="V4")</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>货号</t>
   </si>
@@ -479,6 +479,77 @@
       </rPr>
       <t>}</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUM(F3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(G3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(H3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(I3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(J3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(K3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(L3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(M3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(N3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(O3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(P3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(Q3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(R3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(S3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(T3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(U3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(V3)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -486,6 +557,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -601,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -624,12 +698,83 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -649,7 +794,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -930,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1120,7 +1265,66 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/dayReport.xlsx
+++ b/src/main/resources/template/excel/export/dayReport.xlsx
@@ -46,6 +46,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="V3")</t>
@@ -99,6 +100,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>barCode</t>
@@ -108,6 +110,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -193,6 +196,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -218,6 +222,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -243,6 +248,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -268,6 +274,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -283,6 +290,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -298,6 +306,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -313,6 +322,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -328,6 +338,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -343,6 +354,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -358,6 +370,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -373,6 +386,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -388,6 +402,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -403,6 +418,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -418,6 +434,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -433,6 +450,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -460,6 +478,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -475,6 +494,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -498,12 +518,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -511,6 +533,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -518,23 +541,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -928,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1127,7 +1154,7 @@
     <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1217,7 +1244,6 @@
     <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:V1"/>

--- a/src/main/resources/template/excel/export/dayReport.xlsx
+++ b/src/main/resources/template/excel/export/dayReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="V4")</t>
+          <t>jx:area(lastCell="V3")</t>
         </r>
       </text>
     </comment>
@@ -46,6 +46,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="V3")</t>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>货号</t>
   </si>
@@ -99,6 +100,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>barCode</t>
@@ -108,6 +110,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -193,6 +196,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -218,6 +222,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -243,6 +248,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -268,6 +274,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -283,6 +290,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -298,6 +306,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -313,6 +322,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -328,6 +338,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -343,6 +354,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -358,6 +370,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -373,6 +386,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -388,6 +402,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -403,6 +418,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -418,6 +434,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -433,6 +450,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -460,6 +478,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -475,81 +494,11 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(F3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(G3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(H3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(I3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(J3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(K3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(L3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(M3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(N3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(O3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(P3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(Q3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(R3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(S3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(T3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(U3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(V3)]</t>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -557,9 +506,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
-  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,12 +518,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -585,6 +533,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -592,23 +541,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -675,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,83 +651,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -794,7 +676,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1073,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection sqref="A1:V1"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1265,73 +1147,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
+    <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1421,7 +1244,6 @@
     <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:V1"/>

--- a/src/main/resources/template/excel/export/dayReport.xlsx
+++ b/src/main/resources/template/excel/export/dayReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="V3")</t>
+          <t>jx:area(lastCell="X3")</t>
         </r>
       </text>
     </comment>
@@ -49,7 +49,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="V3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="X3")</t>
         </r>
       </text>
     </comment>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>货号</t>
   </si>
@@ -458,10 +458,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>机构名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>销售数量</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -499,6 +495,26 @@
       </rPr>
       <t>}</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.spec}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.unit}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -955,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -966,26 +982,26 @@
     <col min="1" max="1" width="17.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="24.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="29.75" style="2" customWidth="1"/>
-    <col min="10" max="12" width="18.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19" style="2" customWidth="1"/>
-    <col min="16" max="16" width="21.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="15.75" style="2" customWidth="1"/>
-    <col min="19" max="19" width="15.25" style="2" customWidth="1"/>
-    <col min="20" max="20" width="17" style="2" customWidth="1"/>
-    <col min="21" max="21" width="18.125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="13.875" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="2"/>
+    <col min="4" max="7" width="24.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="29.75" style="2" customWidth="1"/>
+    <col min="12" max="14" width="18.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="19" style="2" customWidth="1"/>
+    <col min="18" max="18" width="21.625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="15.75" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.25" style="2" customWidth="1"/>
+    <col min="22" max="22" width="17" style="2" customWidth="1"/>
+    <col min="23" max="23" width="18.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -1010,13 +1026,15 @@
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -1028,58 +1046,64 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1095,71 +1119,77 @@
       <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1246,7 +1276,7 @@
     <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A1:X1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
